--- a/CAD/main_design _table.xlsx
+++ b/CAD/main_design _table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A My Stuff\Random\Capstone\Code\Solaris-Propulsion\Solaris-Propulsion\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4157BF9E-F331-4A61-890C-C0032623E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36988192-502E-4E2D-AA8F-5549A849E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="366" yWindow="366" windowWidth="17280" windowHeight="8994" xr2:uid="{A13EE63F-303C-40CE-B870-0A13D75E228C}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{A13EE63F-303C-40CE-B870-0A13D75E228C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>RGammaLOX</t>
   </si>
@@ -48,6 +48,141 @@
   </si>
   <si>
     <t>Re</t>
+  </si>
+  <si>
+    <t>straightAngle</t>
+  </si>
+  <si>
+    <t>GRCOP</t>
+  </si>
+  <si>
+    <t>INCONEL</t>
+  </si>
+  <si>
+    <t>lipAngle</t>
+  </si>
+  <si>
+    <t>manifoldDistFactor</t>
+  </si>
+  <si>
+    <t>coolingChannelHeightChamber</t>
+  </si>
+  <si>
+    <t>coolingChannelHeightConverge</t>
+  </si>
+  <si>
+    <t>coolingChannelShrinkDist</t>
+  </si>
+  <si>
+    <t>coolingChannelWallDist</t>
+  </si>
+  <si>
+    <t>landWidth</t>
+  </si>
+  <si>
+    <t>numChannels</t>
+  </si>
+  <si>
+    <t>chamberInnerRad</t>
+  </si>
+  <si>
+    <t>chamberStraightLength</t>
+  </si>
+  <si>
+    <t>overchoke</t>
+  </si>
+  <si>
+    <t>xc</t>
+  </si>
+  <si>
+    <t>thetaThroat</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>boltHoleDia</t>
+  </si>
+  <si>
+    <t>numberOfBoltHoles</t>
+  </si>
+  <si>
+    <t>collingFuelHoleDia</t>
+  </si>
+  <si>
+    <t>collingFuelHolePatternDia</t>
+  </si>
+  <si>
+    <t>GammaLOX</t>
+  </si>
+  <si>
+    <t>LOXDoubletDiameter</t>
+  </si>
+  <si>
+    <t>FacePlateThickness</t>
+  </si>
+  <si>
+    <t>NumberofHoles</t>
+  </si>
+  <si>
+    <t>GammaFUEL</t>
+  </si>
+  <si>
+    <t>FUELDoubletDiameter</t>
+  </si>
+  <si>
+    <t>RPlugInitial</t>
+  </si>
+  <si>
+    <t>LOXPlenumSpacing</t>
+  </si>
+  <si>
+    <t>LOXPlenumThickness</t>
+  </si>
+  <si>
+    <t>MachinabilityTolerance</t>
+  </si>
+  <si>
+    <t>MachinableFillets</t>
+  </si>
+  <si>
+    <t>FUELPlenumSpacing</t>
+  </si>
+  <si>
+    <t>FUELPlenumThickness</t>
+  </si>
+  <si>
+    <t>OringGroove</t>
+  </si>
+  <si>
+    <t>OuterFilmCoolingOrificeDiameter</t>
+  </si>
+  <si>
+    <t>NumberFilmCoolingHoles</t>
+  </si>
+  <si>
+    <t>GammaOuterFilmCooling</t>
+  </si>
+  <si>
+    <t>InnerChamberDiameter</t>
+  </si>
+  <si>
+    <t>throatArcRadFactor</t>
+  </si>
+  <si>
+    <t>convergeAngle</t>
+  </si>
+  <si>
+    <t>turnArcRadFactor</t>
+  </si>
+  <si>
+    <t>coolingChannelHeight</t>
+  </si>
+  <si>
+    <t>chamberLength</t>
+  </si>
+  <si>
+    <t>baseRad</t>
   </si>
 </sst>
 </file>
@@ -83,8 +218,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,44 +555,585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE6D365-A285-49F6-876B-DF26240C7EFF}">
-  <dimension ref="A2:B9"/>
+  <dimension ref="B1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>C2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="C3">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="D3">
+        <v>3.3690000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>7.7</v>
+      </c>
+      <c r="D4">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>0.125</v>
+      </c>
+      <c r="D6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>7.25</v>
+      </c>
+      <c r="D7">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+      <c r="D12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>0.05</v>
+      </c>
+      <c r="D13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D18">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>6.7</v>
+      </c>
+      <c r="D19">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0.50975000000000004</v>
+      </c>
+      <c r="D21">
+        <v>0.50975000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>68.52</v>
+      </c>
+      <c r="D22">
+        <v>68.52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>68.515699999999995</v>
+      </c>
+      <c r="D23" s="1">
+        <v>68.515699999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>1.75</v>
+      </c>
+      <c r="D27">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>6.3</v>
+      </c>
+      <c r="D32">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="C35">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="D35">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="C36">
         <v>0.55000000000000004</v>
+      </c>
+      <c r="D36">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D38">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>0.25</v>
+      </c>
+      <c r="D39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>14.5</v>
+      </c>
+      <c r="D41">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D42">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>0.75</v>
+      </c>
+      <c r="D43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D45">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>0.05</v>
+      </c>
+      <c r="D46">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D47">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>0.75</v>
+      </c>
+      <c r="D48">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D49">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>0.3</v>
+      </c>
+      <c r="D50">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D51">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D52">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>47</v>
+      </c>
+      <c r="D53">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55">
+        <v>6.5</v>
+      </c>
+      <c r="D55">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
